--- a/data/derived/arc-tme-ornl/co2Flux_ornl_sum_2020-04-13.xlsx
+++ b/data/derived/arc-tme-ornl/co2Flux_ornl_sum_2020-04-13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="40" windowWidth="25040" windowHeight="16860" tabRatio="500"/>
+    <workbookView xWindow="1700" yWindow="40" windowWidth="25040" windowHeight="16860" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId8"/>
+    <pivotCache cacheId="15" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="178">
   <si>
     <t>Excel workbook from Malu Cisneros (Malu.Cisneros@glasgow.ac.uk), received on 9-Apr-2020</t>
   </si>
@@ -314,13 +314,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>ID_beem-Miller</t>
-  </si>
-  <si>
     <t>sampleID_trimmed</t>
-  </si>
-  <si>
-    <t>ID_trimmed</t>
   </si>
   <si>
     <t>timeCmtv_d</t>
@@ -598,6 +592,39 @@
   <si>
     <t>data on sheet 'arc-tme-ornl' summarizes contents of this workbook and is source for csv output; note that C data is taken from Swanston et al. 2005 (doi.org/10.1016/j.geoderma.2004.12.015)</t>
   </si>
+  <si>
+    <t>ID_jarinfo</t>
+  </si>
+  <si>
+    <t>SampleName</t>
+  </si>
+  <si>
+    <t>ID_jarinfo_trimmed</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>YearSampled</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Horizon</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
 </sst>
 </file>
 
@@ -698,8 +725,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -812,7 +841,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="95">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -859,6 +888,7 @@
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -905,6 +935,7 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4127,7 +4158,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A1:O16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -4610,7 +4641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -4618,12 +4649,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4638,12 +4669,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -5303,13 +5334,13 @@
         <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>61</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -5342,7 +5373,7 @@
         <v>39</v>
       </c>
       <c r="S1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -14905,10 +14936,10 @@
         <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -14919,37 +14950,37 @@
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
         <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
         <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
         <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s">
         <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L3" t="s">
         <v>68</v>
       </c>
       <c r="M3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -15474,96 +15505,96 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>94</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>96</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" t="s">
         <v>97</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" t="s">
         <v>98</v>
       </c>
-      <c r="L1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" t="s">
         <v>99</v>
       </c>
-      <c r="R1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T1" t="s">
-        <v>99</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>100</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>101</v>
-      </c>
-      <c r="W1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
         <v>104</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>105</v>
-      </c>
-      <c r="G2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" t="s">
-        <v>107</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -15596,7 +15627,7 @@
         <v>5</v>
       </c>
       <c r="AB2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -15613,10 +15644,10 @@
         <v>2.1700000000000001E-2</v>
       </c>
       <c r="AC3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AD3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -15761,7 +15792,7 @@
         <v>-27.573939428787934</v>
       </c>
       <c r="AE5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -15844,7 +15875,7 @@
         <v>-27.587908643038318</v>
       </c>
       <c r="AE6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -15921,7 +15952,7 @@
         <v>-28.085408473158068</v>
       </c>
       <c r="AE7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -16072,7 +16103,7 @@
         <v>-28.012523700482753</v>
       </c>
       <c r="AE9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -16143,7 +16174,7 @@
         <v>-27.96926630017078</v>
       </c>
       <c r="AE10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -16226,7 +16257,7 @@
         <v>-28.062559679753154</v>
       </c>
       <c r="AE11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -16383,7 +16414,7 @@
         <v>-27.086509729486259</v>
       </c>
       <c r="AE13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -16466,7 +16497,7 @@
         <v>-25.934593641779145</v>
       </c>
       <c r="AE14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -16543,7 +16574,7 @@
         <v>-27.386224859931978</v>
       </c>
       <c r="AE15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -16682,7 +16713,7 @@
         <v>-26.876902283878483</v>
       </c>
       <c r="AE17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -16765,7 +16796,7 @@
         <v>-27.187570071372804</v>
       </c>
       <c r="AE18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -16842,7 +16873,7 @@
         <v>-27.296763283811668</v>
       </c>
       <c r="AE19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -17373,38 +17404,38 @@
     </row>
     <row r="28" spans="1:31">
       <c r="D28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:31">
       <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" t="s">
         <v>124</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>125</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>126</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>127</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>128</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>129</v>
-      </c>
-      <c r="H29" t="s">
-        <v>130</v>
-      </c>
-      <c r="I29" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B30">
         <v>87.34</v>
@@ -17436,7 +17467,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B31">
         <v>123.25</v>
@@ -17468,7 +17499,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B32">
         <v>137.82</v>
@@ -17500,7 +17531,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B33">
         <v>145.36000000000001</v>
@@ -17532,7 +17563,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B34">
         <v>143.16</v>
@@ -17564,7 +17595,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B35">
         <v>144.19</v>
@@ -17599,7 +17630,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B36">
         <v>91.84</v>
@@ -17634,7 +17665,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B37">
         <v>157.03</v>
@@ -17666,7 +17697,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B38">
         <v>226.84</v>
@@ -17698,7 +17729,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B39">
         <v>109.48</v>
@@ -17730,7 +17761,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B40">
         <v>230.69</v>
@@ -17762,7 +17793,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B41">
         <v>231.85</v>
@@ -17797,22 +17828,22 @@
     </row>
     <row r="42" spans="1:11">
       <c r="B42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" t="s">
         <v>144</v>
       </c>
-      <c r="C42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" t="s">
-        <v>146</v>
-      </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F42">
         <v>111.785</v>
       </c>
       <c r="G42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K42">
         <v>9.4885110482218007</v>
@@ -17820,21 +17851,21 @@
     </row>
     <row r="43" spans="1:11">
       <c r="F43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G43" t="s">
+        <v>146</v>
+      </c>
+      <c r="H43" t="s">
+        <v>147</v>
+      </c>
+      <c r="J43" t="s">
         <v>148</v>
-      </c>
-      <c r="H43" t="s">
-        <v>149</v>
-      </c>
-      <c r="J43" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B44">
         <v>4.8499999999999996</v>
@@ -17866,7 +17897,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B45">
         <v>6.92</v>
@@ -17898,7 +17929,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B46">
         <v>5.67</v>
@@ -17930,7 +17961,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B47">
         <v>6.73</v>
@@ -17962,7 +17993,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B48">
         <v>7.35</v>
@@ -17994,7 +18025,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B49">
         <v>7.09</v>
@@ -18029,7 +18060,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B50">
         <v>8.17</v>
@@ -18064,7 +18095,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B51">
         <v>6.35</v>
@@ -18096,7 +18127,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B52">
         <v>7.27</v>
@@ -18128,7 +18159,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B53">
         <v>7.01</v>
@@ -18160,7 +18191,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B54">
         <v>6.41</v>
@@ -18192,7 +18223,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B55">
         <v>7.04</v>
@@ -18243,66 +18274,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>163</v>
+      </c>
+      <c r="R1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S1" t="s">
         <v>164</v>
       </c>
-      <c r="E1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" t="s">
-        <v>165</v>
-      </c>
-      <c r="L1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="str">
-        <f>IF(LEFT(B2,1)="W","WB "&amp;LEFT(RIGHT(B2,4),2)&amp;" C","TVA "&amp;LEFT(RIGHT(B2,4),2)&amp;" C")</f>
+        <f>E2</f>
         <v>TVA 2B C</v>
       </c>
       <c r="B2" t="str">
@@ -18313,601 +18363,841 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="14">
+        <v>136</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E13" si="0">IF(LEFT(B2,1)="W","WB "&amp;LEFT(RIGHT(B2,4),2)&amp;" C","TVA "&amp;LEFT(RIGHT(B2,4),2)&amp;" C")</f>
+        <v>TVA 2B C</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(LEFT(E2,3)="TVA","Tennessee Valley","Walker Branch")</f>
+        <v>Tennessee Valley</v>
+      </c>
+      <c r="G2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2">
+        <v>2004</v>
+      </c>
+      <c r="K2" s="14">
         <f>VLOOKUP(C2,summary!$A$3:$O$15,14,FALSE)</f>
         <v>3.2566826410460306</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F13" si="0">E2/H2</f>
+      <c r="L2">
+        <f t="shared" ref="L2:L13" si="1">K2/N2</f>
         <v>7.9064885677252492E-2</v>
       </c>
-      <c r="G2">
+      <c r="M2">
         <v>24.87</v>
       </c>
-      <c r="H2">
+      <c r="N2">
         <f>VLOOKUP(D2,d14C!$A$30:$H$41,8,FALSE)</f>
         <v>41.190000000000005</v>
       </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I13" si="1">H2*(H2*10^-3)*G2</f>
+      <c r="O2">
+        <f t="shared" ref="O2:O13" si="2">N2*(N2*10^-3)*M2</f>
         <v>42.19484240700001</v>
       </c>
-      <c r="J2">
+      <c r="P2">
         <f>VLOOKUP(C2,summary!$A$4:$O$15,15,FALSE)</f>
         <v>13</v>
       </c>
-      <c r="K2">
+      <c r="Q2">
         <f>VLOOKUP($D2,d14C!$A$30:$J$41,10,FALSE)</f>
         <v>30.201505219713532</v>
       </c>
-      <c r="L2">
+      <c r="R2">
         <f>VLOOKUP($C2,d14C!$C$4:$AB$27,25,FALSE)</f>
         <v>-26.444909450000001</v>
       </c>
-      <c r="M2">
+      <c r="S2">
         <f>VLOOKUP($C2,d14C!$C$4:$AB$27,26,FALSE)</f>
         <v>205.96492402693255</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:19">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A13" si="2">IF(LEFT(B3,1)="W","WB "&amp;LEFT(RIGHT(B3,4),2)&amp;" C","TVA "&amp;LEFT(RIGHT(B3,4),2)&amp;" C")</f>
+        <f t="shared" ref="A3:A13" si="3">E3</f>
         <v>TVA 3B C</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B13" si="3">IF(RIGHT(C3,1)=" ",LEFT(C3,LEN(C3)-1),C3)</f>
+        <f t="shared" ref="B3:B13" si="4">IF(RIGHT(C3,1)=" ",LEFT(C3,LEN(C3)-1),C3)</f>
         <v>TVA-3B-C</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="14">
+        <v>137</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>TVA 3B C</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F13" si="5">IF(LEFT(E3,3)="TVA","Tennessee Valley","Walker Branch")</f>
+        <v>Tennessee Valley</v>
+      </c>
+      <c r="G3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3">
+        <v>2004</v>
+      </c>
+      <c r="K3" s="14">
         <f>VLOOKUP(C3,summary!$A$3:$O$15,14,FALSE)</f>
         <v>2.5494593742324616</v>
       </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
+      <c r="L3">
+        <f t="shared" si="1"/>
         <v>0.17643317468736738</v>
       </c>
-      <c r="G3">
+      <c r="M3">
         <v>24.87</v>
       </c>
-      <c r="H3">
+      <c r="N3">
         <f>VLOOKUP(D3,d14C!$A$30:$H$41,8,FALSE)</f>
         <v>14.450000000000017</v>
       </c>
-      <c r="I3">
-        <f t="shared" si="1"/>
+      <c r="O3">
+        <f t="shared" si="2"/>
         <v>5.1929181750000124</v>
       </c>
-      <c r="J3">
+      <c r="P3">
         <f>VLOOKUP(C3,summary!$A$4:$O$15,15,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="K3">
+      <c r="Q3">
         <f>VLOOKUP(D3,d14C!$A$30:$J$41,10,FALSE)</f>
         <v>48.927335640138203</v>
       </c>
-      <c r="L3">
+      <c r="R3">
         <f>VLOOKUP($C3,d14C!$C$4:$AB$27,25,FALSE)</f>
         <v>-27.458819399999999</v>
       </c>
-      <c r="M3">
+      <c r="S3">
         <f>VLOOKUP($C3,d14C!$C$4:$AB$27,26,FALSE)</f>
         <v>196.65185208148773</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:19">
       <c r="A4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TVA 4E C</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TVA-4E-C</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="14">
+        <v>138</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>TVA 4E C</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="5"/>
+        <v>Tennessee Valley</v>
+      </c>
+      <c r="G4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4">
+        <v>2004</v>
+      </c>
+      <c r="K4" s="14">
         <f>VLOOKUP(C4,summary!$A$3:$O$15,14,FALSE)</f>
         <v>3.5004222461474841</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
+      <c r="L4">
+        <f t="shared" si="1"/>
         <v>5.3076910479870856E-2</v>
       </c>
-      <c r="G4">
+      <c r="M4">
         <v>24.87</v>
       </c>
-      <c r="H4">
+      <c r="N4">
         <f>VLOOKUP(D4,d14C!$A$30:$H$41,8,FALSE)</f>
         <v>65.950000000000017</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
+      <c r="O4">
+        <f t="shared" si="2"/>
         <v>108.16964017500007</v>
       </c>
-      <c r="J4">
+      <c r="P4">
         <f>VLOOKUP(C4,summary!$A$4:$O$15,15,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="K4">
+      <c r="Q4">
         <f>VLOOKUP(D4,d14C!$A$30:$J$41,10,FALSE)</f>
         <v>26.201667930250181</v>
       </c>
-      <c r="L4">
+      <c r="R4">
         <f>VLOOKUP($C4,d14C!$C$4:$AB$27,25,FALSE)</f>
         <v>-26.296340749999999</v>
       </c>
-      <c r="M4">
+      <c r="S4">
         <f>VLOOKUP($C4,d14C!$C$4:$AB$27,26,FALSE)</f>
         <v>185.735362801267</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:19">
       <c r="A5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TVA 5B C</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TVA-5B-C</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="14">
+        <v>139</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>TVA 5B C</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="5"/>
+        <v>Tennessee Valley</v>
+      </c>
+      <c r="G5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J5">
+        <v>2004</v>
+      </c>
+      <c r="K5" s="14">
         <f>VLOOKUP(C5,summary!$A$3:$O$15,14,FALSE)</f>
         <v>3.9192962846802195</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
+      <c r="L5">
+        <f t="shared" si="1"/>
         <v>7.4881472768059218E-2</v>
       </c>
-      <c r="G5">
+      <c r="M5">
         <v>24.87</v>
       </c>
-      <c r="H5">
+      <c r="N5">
         <f>VLOOKUP(D5,d14C!$A$30:$H$41,8,FALSE)</f>
         <v>52.34</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
+      <c r="O5">
+        <f t="shared" si="2"/>
         <v>68.130758172000014</v>
       </c>
-      <c r="J5">
+      <c r="P5">
         <f>VLOOKUP(C5,summary!$A$4:$O$15,15,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="K5">
+      <c r="Q5">
         <f>VLOOKUP(D5,d14C!$A$30:$J$41,10,FALSE)</f>
         <v>26.480703095147142</v>
       </c>
-      <c r="L5">
+      <c r="R5">
         <f>VLOOKUP($C5,d14C!$C$4:$AB$27,25,FALSE)</f>
         <v>-27.667189775000004</v>
       </c>
-      <c r="M5">
+      <c r="S5">
         <f>VLOOKUP($C5,d14C!$C$4:$AB$27,26,FALSE)</f>
         <v>153.92421436218328</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:19">
       <c r="A6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TVA 6E C</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TVA-6E-C</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="14">
+        <v>140</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>TVA 6E C</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="5"/>
+        <v>Tennessee Valley</v>
+      </c>
+      <c r="G6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J6">
+        <v>2004</v>
+      </c>
+      <c r="K6" s="14">
         <f>VLOOKUP(C6,summary!$A$3:$O$15,14,FALSE)</f>
         <v>3.1215947541732914</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
+      <c r="L6">
+        <f t="shared" si="1"/>
         <v>4.7368660913100019E-2</v>
       </c>
-      <c r="G6">
+      <c r="M6">
         <v>24.87</v>
       </c>
-      <c r="H6">
+      <c r="N6">
         <f>VLOOKUP(D6,d14C!$A$30:$H$41,8,FALSE)</f>
         <v>65.900000000000006</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
+      <c r="O6">
+        <f t="shared" si="2"/>
         <v>108.0056847</v>
       </c>
-      <c r="J6">
+      <c r="P6">
         <f>VLOOKUP(C6,summary!$A$4:$O$15,15,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="K6">
+      <c r="Q6">
         <f>VLOOKUP(D6,d14C!$A$30:$J$41,10,FALSE)</f>
         <v>28.224582701062182</v>
       </c>
-      <c r="L6">
+      <c r="R6">
         <f>VLOOKUP($C6,d14C!$C$4:$AB$27,25,FALSE)</f>
         <v>-26.629163250000001</v>
       </c>
-      <c r="M6">
+      <c r="S6">
         <f>VLOOKUP($C6,d14C!$C$4:$AB$27,26,FALSE)</f>
         <v>174.96701076591293</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:19">
       <c r="A7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TVA 8E C</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TVA-8E-C</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="14">
+        <v>141</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>TVA 8E C</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="5"/>
+        <v>Tennessee Valley</v>
+      </c>
+      <c r="G7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J7">
+        <v>2004</v>
+      </c>
+      <c r="K7" s="14">
         <f>VLOOKUP(C7,summary!$A$3:$O$15,14,FALSE)</f>
         <v>3.4853172389828453</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
+      <c r="L7">
+        <f t="shared" si="1"/>
         <v>4.6035097595863758E-2</v>
       </c>
-      <c r="G7">
+      <c r="M7">
         <v>24.87</v>
       </c>
-      <c r="H7">
+      <c r="N7">
         <f>VLOOKUP(D7,d14C!$A$30:$H$41,8,FALSE)</f>
         <v>75.710000000000008</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
+      <c r="O7">
+        <f t="shared" si="2"/>
         <v>142.55494196700005</v>
       </c>
-      <c r="J7">
+      <c r="P7">
         <f>VLOOKUP(C7,summary!$A$4:$O$15,15,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="K7">
+      <c r="Q7">
         <f>VLOOKUP(D7,d14C!$A$30:$J$41,10,FALSE)</f>
         <v>22.084268920882309</v>
       </c>
-      <c r="L7">
+      <c r="R7">
         <f>VLOOKUP($C7,d14C!$C$4:$AB$27,25,FALSE)</f>
         <v>-25.338596350000003</v>
       </c>
-      <c r="M7">
+      <c r="S7">
         <f>VLOOKUP($C7,d14C!$C$4:$AB$27,26,FALSE)</f>
         <v>167.48153302296399</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:19">
       <c r="A8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>WB 3E C</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>WB-3E-C</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="14">
+        <v>130</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>WB 3E C</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="5"/>
+        <v>Walker Branch</v>
+      </c>
+      <c r="G8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" t="s">
+        <v>173</v>
+      </c>
+      <c r="J8">
+        <v>2004</v>
+      </c>
+      <c r="K8" s="14">
         <f>VLOOKUP(C8,summary!$A$3:$O$15,14,FALSE)</f>
         <v>3.1198045577185658</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
+      <c r="L8">
+        <f t="shared" si="1"/>
         <v>7.7800612411934311E-2</v>
       </c>
-      <c r="G8">
+      <c r="M8">
         <v>24.89</v>
       </c>
-      <c r="H8">
+      <c r="N8">
         <f>VLOOKUP(D8,d14C!$A$30:$H$41,8,FALSE)</f>
         <v>40.1</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
+      <c r="O8">
+        <f t="shared" si="2"/>
         <v>40.023368900000008</v>
       </c>
-      <c r="J8">
+      <c r="P8">
         <f>VLOOKUP(C8,summary!$A$4:$O$15,15,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="K8">
+      <c r="Q8">
         <f>VLOOKUP(D8,d14C!$A$30:$J$41,10,FALSE)</f>
         <v>36.084788029925164</v>
       </c>
-      <c r="L8">
+      <c r="R8">
         <f>VLOOKUP($C8,d14C!$C$4:$AB$27,25,FALSE)</f>
         <v>-27.224269750000001</v>
       </c>
-      <c r="M8">
+      <c r="S8">
         <f>VLOOKUP($C8,d14C!$C$4:$AB$27,26,FALSE)</f>
         <v>380.88596619884549</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:19">
       <c r="A9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>WB 4B C</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>WB-4B-C</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="14">
+        <v>131</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>WB 4B C</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="5"/>
+        <v>Walker Branch</v>
+      </c>
+      <c r="G9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J9">
+        <v>2004</v>
+      </c>
+      <c r="K9" s="14">
         <f>VLOOKUP(C9,summary!$A$3:$O$15,14,FALSE)</f>
         <v>4.150009906795769</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
+      <c r="L9">
+        <f t="shared" si="1"/>
         <v>6.9783250492614246E-2</v>
       </c>
-      <c r="G9">
+      <c r="M9">
         <v>24.89</v>
       </c>
-      <c r="H9">
+      <c r="N9">
         <f>VLOOKUP(D9,d14C!$A$30:$H$41,8,FALSE)</f>
         <v>59.47</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
+      <c r="O9">
+        <f t="shared" si="2"/>
         <v>88.027987601000007</v>
       </c>
-      <c r="J9">
+      <c r="P9">
         <f>VLOOKUP(C9,summary!$A$4:$O$15,15,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="K9">
+      <c r="Q9">
         <f>VLOOKUP(D9,d14C!$A$30:$J$41,10,FALSE)</f>
         <v>34.118042710610403</v>
       </c>
-      <c r="L9">
+      <c r="R9">
         <f>VLOOKUP($C9,d14C!$C$4:$AB$27,25,FALSE)</f>
         <v>-27.717386600000001</v>
       </c>
-      <c r="M9">
+      <c r="S9">
         <f>VLOOKUP($C9,d14C!$C$4:$AB$27,26,FALSE)</f>
         <v>254.86760860379621</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:19">
       <c r="A10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>WB 5B C</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>WB-5B-C</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="14">
+        <v>132</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>WB 5B C</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="5"/>
+        <v>Walker Branch</v>
+      </c>
+      <c r="G10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10">
+        <v>2004</v>
+      </c>
+      <c r="K10" s="14">
         <f>VLOOKUP(C10,summary!$A$3:$O$15,14,FALSE)</f>
         <v>3.5762544548195714</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
+      <c r="L10">
+        <f t="shared" si="1"/>
         <v>5.0483546793048721E-2</v>
       </c>
-      <c r="G10">
+      <c r="M10">
         <v>24.89</v>
       </c>
-      <c r="H10">
+      <c r="N10">
         <f>VLOOKUP(D10,d14C!$A$30:$H$41,8,FALSE)</f>
         <v>70.84</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
+      <c r="O10">
+        <f t="shared" si="2"/>
         <v>124.90562638400002</v>
       </c>
-      <c r="J10">
+      <c r="P10">
         <f>VLOOKUP(C10,summary!$A$4:$O$15,15,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="K10">
+      <c r="Q10">
         <f>VLOOKUP(D10,d14C!$A$30:$J$41,10,FALSE)</f>
         <v>25.465838509316757</v>
       </c>
-      <c r="L10">
+      <c r="R10">
         <f>VLOOKUP($C10,d14C!$C$4:$AB$27,25,FALSE)</f>
         <v>-26.823392500000001</v>
       </c>
-      <c r="M10">
+      <c r="S10">
         <f>VLOOKUP($C10,d14C!$C$4:$AB$27,26,FALSE)</f>
         <v>315.64760764651891</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:19">
       <c r="A11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>WB 6E C</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>WB-6E-C</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="14">
+        <v>133</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>WB 6E C</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="5"/>
+        <v>Walker Branch</v>
+      </c>
+      <c r="G11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" t="s">
+        <v>173</v>
+      </c>
+      <c r="J11">
+        <v>2004</v>
+      </c>
+      <c r="K11" s="14">
         <f>VLOOKUP(C11,summary!$A$3:$O$15,14,FALSE)</f>
         <v>3.6482437275723343</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
+      <c r="L11">
+        <f t="shared" si="1"/>
         <v>4.9948572392830431E-2</v>
       </c>
-      <c r="G11">
+      <c r="M11">
         <v>24.89</v>
       </c>
-      <c r="H11">
+      <c r="N11">
         <f>VLOOKUP(D11,d14C!$A$30:$H$41,8,FALSE)</f>
         <v>73.039999999999992</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
+      <c r="O11">
+        <f t="shared" si="2"/>
         <v>132.78420742399999</v>
       </c>
-      <c r="J11">
+      <c r="P11">
         <f>VLOOKUP(C11,summary!$A$4:$O$15,15,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="K11">
+      <c r="Q11">
         <f>VLOOKUP(D11,d14C!$A$30:$J$41,10,FALSE)</f>
         <v>29.942497261774399</v>
       </c>
-      <c r="L11">
+      <c r="R11">
         <f>VLOOKUP($C11,d14C!$C$4:$AB$27,25,FALSE)</f>
         <v>-27.942159575000002</v>
       </c>
-      <c r="M11">
+      <c r="S11">
         <f>VLOOKUP($C11,d14C!$C$4:$AB$27,26,FALSE)</f>
         <v>233.94798760744573</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:19">
       <c r="A12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>WB 7E C</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>WB-7E-C</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="14">
+        <v>134</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>WB 7E C</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="5"/>
+        <v>Walker Branch</v>
+      </c>
+      <c r="G12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12">
+        <v>2004</v>
+      </c>
+      <c r="K12" s="14">
         <f>VLOOKUP(C12,summary!$A$3:$O$15,14,FALSE)</f>
         <v>3.4931079217158678</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
+      <c r="L12">
+        <f t="shared" si="1"/>
         <v>4.4611850852054505E-2</v>
       </c>
-      <c r="G12">
+      <c r="M12">
         <v>24.89</v>
       </c>
-      <c r="H12">
+      <c r="N12">
         <f>VLOOKUP(D12,d14C!$A$30:$H$41,8,FALSE)</f>
         <v>78.3</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
+      <c r="O12">
+        <f t="shared" si="2"/>
         <v>152.59785209999998</v>
       </c>
-      <c r="J12">
+      <c r="P12">
         <f>VLOOKUP(C12,summary!$A$4:$O$15,15,FALSE)</f>
         <v>9</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <f>VLOOKUP(D12,d14C!$A$30:$J$41,10,FALSE)</f>
         <v>18.365261813537671</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <f>VLOOKUP($C12,d14C!$C$4:$AB$27,25,FALSE)</f>
         <v>-27.600948900000006</v>
       </c>
-      <c r="M12">
+      <c r="S12">
         <f>VLOOKUP($C12,d14C!$C$4:$AB$27,26,FALSE)</f>
         <v>412.71385456572563</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:19">
       <c r="A13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>WB 8B C</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>WB-8B-C</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="14">
+        <v>135</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>WB 8B C</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="5"/>
+        <v>Walker Branch</v>
+      </c>
+      <c r="G13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J13">
+        <v>2004</v>
+      </c>
+      <c r="K13" s="14">
         <f>VLOOKUP(C13,summary!$A$3:$O$15,14,FALSE)</f>
         <v>2.9997835695184385</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
+      <c r="L13">
+        <f t="shared" si="1"/>
         <v>6.5597716368214265E-2</v>
       </c>
-      <c r="G13">
+      <c r="M13">
         <v>24.89</v>
       </c>
-      <c r="H13">
+      <c r="N13">
         <f>VLOOKUP(D13,d14C!$A$30:$H$41,8,FALSE)</f>
         <v>45.730000000000004</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
+      <c r="O13">
+        <f t="shared" si="2"/>
         <v>52.050786881000015</v>
       </c>
-      <c r="J13">
+      <c r="P13">
         <f>VLOOKUP(C13,summary!$A$4:$O$15,15,FALSE)</f>
         <v>13</v>
       </c>
-      <c r="K13">
+      <c r="Q13">
         <f>VLOOKUP(D13,d14C!$A$30:$J$41,10,FALSE)</f>
         <v>33.697791384211683</v>
       </c>
-      <c r="L13">
+      <c r="R13">
         <f>VLOOKUP($C13,d14C!$C$4:$AB$27,25,FALSE)</f>
         <v>-28.776365125000002</v>
       </c>
-      <c r="M13">
+      <c r="S13">
         <f>VLOOKUP($C13,d14C!$C$4:$AB$27,26,FALSE)</f>
         <v>385.06930973413444</v>
       </c>

--- a/data/derived/arc-tme-ornl/co2Flux_ornl_sum_2020-04-13.xlsx
+++ b/data/derived/arc-tme-ornl/co2Flux_ornl_sum_2020-04-13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="40" windowWidth="25040" windowHeight="16860" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="6440" yWindow="0" windowWidth="21620" windowHeight="16860" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -4158,7 +4158,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A1:O16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -15497,7 +15497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE56"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="AB4" sqref="A4:AB4"/>
     </sheetView>
   </sheetViews>
@@ -18276,8 +18276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18417,8 +18417,8 @@
         <v>-26.444909450000001</v>
       </c>
       <c r="S2">
-        <f>VLOOKUP($C2,d14C!$C$4:$AB$27,26,FALSE)</f>
-        <v>205.96492402693255</v>
+        <f>VLOOKUP($C2,d14C!$Y$4:$AB$27,4,FALSE)</f>
+        <v>380.88596619884549</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -18488,8 +18488,8 @@
         <v>-27.458819399999999</v>
       </c>
       <c r="S3">
-        <f>VLOOKUP($C3,d14C!$C$4:$AB$27,26,FALSE)</f>
-        <v>196.65185208148773</v>
+        <f>VLOOKUP($C3,d14C!$Y$4:$AB$27,4,FALSE)</f>
+        <v>315.64760764651891</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -18559,8 +18559,8 @@
         <v>-26.296340749999999</v>
       </c>
       <c r="S4">
-        <f>VLOOKUP($C4,d14C!$C$4:$AB$27,26,FALSE)</f>
-        <v>185.735362801267</v>
+        <f>VLOOKUP($C4,d14C!$Y$4:$AB$27,4,FALSE)</f>
+        <v>412.71385456572563</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -18630,8 +18630,8 @@
         <v>-27.667189775000004</v>
       </c>
       <c r="S5">
-        <f>VLOOKUP($C5,d14C!$C$4:$AB$27,26,FALSE)</f>
-        <v>153.92421436218328</v>
+        <f>VLOOKUP($C5,d14C!$Y$4:$AB$27,4,FALSE)</f>
+        <v>319.79482839457131</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -18701,8 +18701,8 @@
         <v>-26.629163250000001</v>
       </c>
       <c r="S6">
-        <f>VLOOKUP($C6,d14C!$C$4:$AB$27,26,FALSE)</f>
-        <v>174.96701076591293</v>
+        <f>VLOOKUP($C6,d14C!$Y$4:$AB$27,4,FALSE)</f>
+        <v>347.73401064483522</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -18772,8 +18772,8 @@
         <v>-25.338596350000003</v>
       </c>
       <c r="S7">
-        <f>VLOOKUP($C7,d14C!$C$4:$AB$27,26,FALSE)</f>
-        <v>167.48153302296399</v>
+        <f>VLOOKUP($C7,d14C!$Y$4:$AB$27,4,FALSE)</f>
+        <v>335.4465593989899</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -18843,8 +18843,8 @@
         <v>-27.224269750000001</v>
       </c>
       <c r="S8">
-        <f>VLOOKUP($C8,d14C!$C$4:$AB$27,26,FALSE)</f>
-        <v>380.88596619884549</v>
+        <f>VLOOKUP($C8,d14C!$Y$4:$AB$27,4,FALSE)</f>
+        <v>205.96492402693255</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -18914,8 +18914,8 @@
         <v>-27.717386600000001</v>
       </c>
       <c r="S9">
-        <f>VLOOKUP($C9,d14C!$C$4:$AB$27,26,FALSE)</f>
-        <v>254.86760860379621</v>
+        <f>VLOOKUP($C9,d14C!$Y$4:$AB$27,4,FALSE)</f>
+        <v>185.735362801267</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -18985,8 +18985,8 @@
         <v>-26.823392500000001</v>
       </c>
       <c r="S10">
-        <f>VLOOKUP($C10,d14C!$C$4:$AB$27,26,FALSE)</f>
-        <v>315.64760764651891</v>
+        <f>VLOOKUP($C10,d14C!$Y$4:$AB$27,4,FALSE)</f>
+        <v>174.96701076591293</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -19056,8 +19056,8 @@
         <v>-27.942159575000002</v>
       </c>
       <c r="S11">
-        <f>VLOOKUP($C11,d14C!$C$4:$AB$27,26,FALSE)</f>
-        <v>233.94798760744573</v>
+        <f>VLOOKUP($C11,d14C!$Y$4:$AB$27,4,FALSE)</f>
+        <v>174.6750956370835</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -19127,8 +19127,8 @@
         <v>-27.600948900000006</v>
       </c>
       <c r="S12">
-        <f>VLOOKUP($C12,d14C!$C$4:$AB$27,26,FALSE)</f>
-        <v>412.71385456572563</v>
+        <f>VLOOKUP($C12,d14C!$Y$4:$AB$27,4,FALSE)</f>
+        <v>214.01132546765123</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -19198,8 +19198,8 @@
         <v>-28.776365125000002</v>
       </c>
       <c r="S13">
-        <f>VLOOKUP($C13,d14C!$C$4:$AB$27,26,FALSE)</f>
-        <v>385.06930973413444</v>
+        <f>VLOOKUP($C13,d14C!$Y$4:$AB$27,4,FALSE)</f>
+        <v>204.63133849046255</v>
       </c>
     </row>
   </sheetData>
